--- a/biology/Médecine/Mecillinam/Mecillinam.xlsx
+++ b/biology/Médecine/Mecillinam/Mecillinam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mecillinam est une amidinopénicilline qui agit surtout sur les bactéries à Gram négatif de la famille des entérobactéries[1]. Elle est utilisée dans le traitement des infections urinaires à germes sensibles.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mecillinam est une amidinopénicilline qui agit surtout sur les bactéries à Gram négatif de la famille des entérobactéries. Elle est utilisée dans le traitement des infections urinaires à germes sensibles.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Spectre d'activité antibactérienne</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Espèces sensibles[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Espèces sensibles :
 Les entérobactéries : Escherichia coli, Klebsiella, Citrobacter koseri,Citrobacter freundii, Enterobacter, Morganella morganii, Proteus mirabilis, Proteus rettgeri, Proteus vulgaris, Providencia, Serratia.
 Espèces résistantes :
 Acinetobacter sp, Pseudomonas sp, Stenotrophomonas sp.</t>
